--- a/public/upload/verification.xlsx
+++ b/public/upload/verification.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -101,28 +101,19 @@
     <t>desktop</t>
   </si>
   <si>
-    <t>ST26133</t>
-  </si>
-  <si>
-    <t>7 th</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>2022-08-04 09:46:49</t>
-  </si>
-  <si>
-    <t>Stockin</t>
-  </si>
-  <si>
-    <t>ST26134</t>
-  </si>
-  <si>
-    <t>ST26138</t>
-  </si>
-  <si>
-    <t>ST26147</t>
+    <t>ST6610740</t>
+  </si>
+  <si>
+    <t>Jacks</t>
+  </si>
+  <si>
+    <t>2022-08-04 00:11:34</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Stockout</t>
   </si>
 </sst>
 </file>
@@ -458,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +539,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2">
-        <v>26132</v>
+        <v>21158</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -559,12 +550,8 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -577,150 +564,22 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="X2"/>
       <c r="Y2" t="s">
         <v>32</v>
       </c>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3">
-        <v>26133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3"/>
-      <c r="Y3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4">
-        <v>26137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4"/>
-      <c r="Y4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5">
-        <v>26146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5"/>
-      <c r="Y5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
